--- a/biology/Zoologie/Elachistocleis_matogrosso/Elachistocleis_matogrosso.xlsx
+++ b/biology/Zoologie/Elachistocleis_matogrosso/Elachistocleis_matogrosso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistocleis matogrosso est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistocleis matogrosso est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Mato Grosso et du Mato Grosso do Sul[1]. Sa présence est incertaine en Bolivie et au Paraguay.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Mato Grosso et du Mato Grosso do Sul. Sa présence est incertaine en Bolivie et au Paraguay.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, l'État du Mato Grosso.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caramaschi, 2010 : Notes on the taxonomic status of Elachistocleis ovalis (Schneider, 1799) and description of five new species of Elachistocleis Parker, 1927 (Amphibia, Anura, Microhylidae). Boletim do Museu Nacional Nova Serie Rio de Janeiro, Brasil, vol. 527, p. 1-30.</t>
         </is>
